--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -29,12 +29,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC0CB"/>
+        <bgColor rgb="00FFC0CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,13 +439,40 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -469,353 +510,490 @@
           <t>team2_probability</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>certified_locks</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dallas Mavericks</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.3369785672954877</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.6630214426386197</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>-190</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.8856109492210472</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.1143890507789529</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>-130</v>
-      </c>
-      <c r="D2" t="n">
-        <v>110</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="C4" s="2" t="n">
+        <v>700</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>-1050</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0.288399363478462</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7116006265874305</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Los Angeles Clippers</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="F4" s="2" t="n">
+        <v>0.1351681419858836</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.8648318530470626</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>-1050</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>700</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.8091197421049755</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.1908802578950245</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>-135</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.2619509950040456</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.7380490049959545</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>-560</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>430</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.8269370831642359</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.1730629168357642</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>-135</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.2848461641933172</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.7151538358066829</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>-215</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.1465882738326132</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.8534117212003332</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>-365</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.9359725650061863</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.06402743499381369</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.8261361619673497</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.1738638380326502</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>New Orleans Pelicans</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>-165</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="D3" t="n">
-        <v>-165</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>New Orleans Pelicans</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0.2218646870660309</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7781353029998616</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Charlotte Hornets</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Toronto Raptors</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-850</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Toronto Raptors</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1654025785546778</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8345974115112148</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chicago Bulls</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Memphis Grizzlies</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>110</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-130</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Memphis Grizzlies</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1918798322583874</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8081201578075051</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Minnesota Timberwolves</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Portland Trail Blazers</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-1800</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Minnesota Timberwolves</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7576219517000373</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2423780482999626</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Atlanta Hawks</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dallas Mavericks</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-150</v>
-      </c>
-      <c r="D7" t="n">
-        <v>130</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Atlanta Hawks</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7607025830436108</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2392974169563893</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Detroit Pistons</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Orlando Magic</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>295</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-360</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Orlando Magic</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1751287282125945</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8248712618532981</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sacramento Kings</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="F12" s="3" t="n">
+        <v>0.761849703889902</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.2381502961100979</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>-475</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.887256119048584</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.112743880951416</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>-340</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.8587305969618372</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0.1412694030381628</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>-1400</v>
-      </c>
-      <c r="D9" t="n">
-        <v>850</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Sacramento Kings</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7769561269067223</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.2230438730932777</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Houston Rockets</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Los Angeles Lakers</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>470</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-625</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Los Angeles Lakers</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1384317064644886</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.8615682836014039</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Oklahoma City Thunder</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="C15" s="3" t="n">
+        <v>-2400</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>Phoenix Suns</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>170</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-200</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Phoenix Suns</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3359166330691408</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.6640833669308592</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Cleveland Cavaliers</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="F15" s="3" t="n">
+        <v>0.9587976383039619</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0.04120236169603802</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Indiana Pacers</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>-750</v>
-      </c>
-      <c r="D12" t="n">
-        <v>550</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cleveland Cavaliers</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6431379835304963</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.3568620065353962</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Milwaukee Bucks</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Philadelphia 76ers</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-190</v>
-      </c>
-      <c r="D13" t="n">
-        <v>160</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Milwaukee Bucks</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7653531779564172</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2346468220435829</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>330</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>-410</v>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0.2067683292970897</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.7932316707029102</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
